--- a/data/trans_orig/P33B1_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P33B1_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{16164E42-E537-4FE5-815B-ACD2957F9F81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DEEEFC35-3006-4308-A89E-9B722BF00264}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{224BEBC2-E442-4E49-9D26-DFE48CFA2494}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{7B6E2408-E257-48ED-B19D-7CCEAFD59D4A}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -1134,7 +1134,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F4F671C-046D-48AA-B259-B3E94E20868F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF2E4F0B-7108-40EE-A7BD-75B61F8CB55A}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P33B1_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P33B1_2023-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DEEEFC35-3006-4308-A89E-9B722BF00264}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3FE5C20C-07D6-4D61-8065-D8E942A33A5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{7B6E2408-E257-48ED-B19D-7CCEAFD59D4A}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D98CC920-D281-4F14-8584-CC670358785B}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="234">
   <si>
     <t>Población que tiene dificultad para dormirse por la noche en 2023 (Tasa respuesta: 99,91%)</t>
   </si>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Diariamente o casi diariamente</t>
@@ -74,346 +74,355 @@
     <t>3,86%</t>
   </si>
   <si>
-    <t>1,35%</t>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>A menudo (alguna vez a la semana)</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>Ocasionalmente (alguna vez al mes)</t>
+  </si>
+  <si>
+    <t>25,33%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>35,95%</t>
+  </si>
+  <si>
+    <t>32,8%</t>
+  </si>
+  <si>
+    <t>26,24%</t>
+  </si>
+  <si>
+    <t>39,3%</t>
+  </si>
+  <si>
+    <t>29,55%</t>
+  </si>
+  <si>
+    <t>24,28%</t>
+  </si>
+  <si>
+    <t>34,98%</t>
+  </si>
+  <si>
+    <t>Nunca</t>
+  </si>
+  <si>
+    <t>64,27%</t>
+  </si>
+  <si>
+    <t>54,48%</t>
+  </si>
+  <si>
+    <t>74,28%</t>
+  </si>
+  <si>
+    <t>47,86%</t>
+  </si>
+  <si>
+    <t>40,97%</t>
+  </si>
+  <si>
+    <t>55,04%</t>
+  </si>
+  <si>
+    <t>55,01%</t>
+  </si>
+  <si>
+    <t>49,31%</t>
+  </si>
+  <si>
+    <t>61,34%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
   </si>
   <si>
     <t>9,87%</t>
   </si>
   <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>A menudo (alguna vez a la semana)</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>Ocasionalmente (alguna vez al mes)</t>
-  </si>
-  <si>
-    <t>25,33%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>34,77%</t>
-  </si>
-  <si>
-    <t>32,8%</t>
-  </si>
-  <si>
-    <t>26,81%</t>
-  </si>
-  <si>
-    <t>39,67%</t>
-  </si>
-  <si>
-    <t>29,55%</t>
-  </si>
-  <si>
-    <t>24,63%</t>
-  </si>
-  <si>
-    <t>35,06%</t>
-  </si>
-  <si>
-    <t>Nunca</t>
-  </si>
-  <si>
-    <t>64,27%</t>
-  </si>
-  <si>
-    <t>55,07%</t>
-  </si>
-  <si>
-    <t>73,39%</t>
-  </si>
-  <si>
-    <t>47,86%</t>
-  </si>
-  <si>
-    <t>40,63%</t>
-  </si>
-  <si>
-    <t>54,99%</t>
-  </si>
-  <si>
-    <t>55,01%</t>
-  </si>
-  <si>
-    <t>48,78%</t>
-  </si>
-  <si>
-    <t>60,41%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
   </si>
   <si>
     <t>21,72%</t>
   </si>
   <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>25,76%</t>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>25,17%</t>
   </si>
   <si>
     <t>24,4%</t>
   </si>
   <si>
-    <t>21,9%</t>
-  </si>
-  <si>
-    <t>27,41%</t>
+    <t>21,7%</t>
+  </si>
+  <si>
+    <t>27,09%</t>
   </si>
   <si>
     <t>23,11%</t>
   </si>
   <si>
-    <t>20,92%</t>
-  </si>
-  <si>
-    <t>25,45%</t>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>25,4%</t>
   </si>
   <si>
     <t>62,54%</t>
   </si>
   <si>
-    <t>57,88%</t>
-  </si>
-  <si>
-    <t>66,4%</t>
+    <t>58,65%</t>
+  </si>
+  <si>
+    <t>67,15%</t>
   </si>
   <si>
     <t>50,18%</t>
   </si>
   <si>
-    <t>46,47%</t>
-  </si>
-  <si>
-    <t>53,45%</t>
+    <t>46,77%</t>
+  </si>
+  <si>
+    <t>53,71%</t>
   </si>
   <si>
     <t>56,13%</t>
   </si>
   <si>
-    <t>53,16%</t>
-  </si>
-  <si>
-    <t>58,75%</t>
-  </si>
-  <si>
-    <t>10/50</t>
+    <t>53,54%</t>
+  </si>
+  <si>
+    <t>58,85%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>6,14%</t>
   </si>
   <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
   </si>
   <si>
     <t>11,59%</t>
   </si>
   <si>
-    <t>13,58%</t>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
   </si>
   <si>
     <t>8,89%</t>
   </si>
   <si>
-    <t>10,09%</t>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
   </si>
   <si>
     <t>5,2%</t>
   </si>
   <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
   </si>
   <si>
     <t>9,19%</t>
   </si>
   <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
   </si>
   <si>
     <t>7,21%</t>
   </si>
   <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
   </si>
   <si>
     <t>16,49%</t>
   </si>
   <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>19,11%</t>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>19,32%</t>
   </si>
   <si>
     <t>25,55%</t>
   </si>
   <si>
-    <t>23,36%</t>
-  </si>
-  <si>
-    <t>27,98%</t>
+    <t>23,1%</t>
+  </si>
+  <si>
+    <t>27,86%</t>
   </si>
   <si>
     <t>21,06%</t>
   </si>
   <si>
-    <t>18,96%</t>
-  </si>
-  <si>
-    <t>22,87%</t>
+    <t>18,95%</t>
+  </si>
+  <si>
+    <t>22,81%</t>
   </si>
   <si>
     <t>72,18%</t>
   </si>
   <si>
-    <t>68,94%</t>
-  </si>
-  <si>
-    <t>76,38%</t>
+    <t>68,83%</t>
+  </si>
+  <si>
+    <t>76,51%</t>
   </si>
   <si>
     <t>53,67%</t>
   </si>
   <si>
-    <t>50,77%</t>
-  </si>
-  <si>
-    <t>56,35%</t>
+    <t>51,12%</t>
+  </si>
+  <si>
+    <t>56,73%</t>
   </si>
   <si>
     <t>62,84%</t>
   </si>
   <si>
-    <t>60,59%</t>
-  </si>
-  <si>
-    <t>66,46%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
+    <t>60,53%</t>
+  </si>
+  <si>
+    <t>65,99%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>6,15%</t>
   </si>
   <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
   </si>
   <si>
     <t>7,02%</t>
@@ -422,97 +431,94 @@
     <t>4,51%</t>
   </si>
   <si>
-    <t>9,11%</t>
+    <t>9,15%</t>
   </si>
   <si>
     <t>6,63%</t>
   </si>
   <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
+    <t>4,92%</t>
   </si>
   <si>
     <t>5,03%</t>
   </si>
   <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
   </si>
   <si>
     <t>7,62%</t>
   </si>
   <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
   </si>
   <si>
     <t>6,44%</t>
   </si>
   <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
   </si>
   <si>
     <t>21,96%</t>
   </si>
   <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>25,52%</t>
+    <t>18,51%</t>
+  </si>
+  <si>
+    <t>25,5%</t>
   </si>
   <si>
     <t>18,62%</t>
   </si>
   <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>22,12%</t>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>22,41%</t>
   </si>
   <si>
     <t>20,14%</t>
   </si>
   <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>22,84%</t>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>22,68%</t>
   </si>
   <si>
     <t>66,86%</t>
   </si>
   <si>
-    <t>62,6%</t>
-  </si>
-  <si>
-    <t>70,37%</t>
+    <t>62,62%</t>
+  </si>
+  <si>
+    <t>70,84%</t>
   </si>
   <si>
     <t>66,74%</t>
   </si>
   <si>
-    <t>60,89%</t>
-  </si>
-  <si>
-    <t>77,96%</t>
+    <t>60,74%</t>
+  </si>
+  <si>
+    <t>77,91%</t>
   </si>
   <si>
     <t>66,79%</t>
   </si>
   <si>
-    <t>63,39%</t>
-  </si>
-  <si>
-    <t>74,36%</t>
+    <t>63,03%</t>
+  </si>
+  <si>
+    <t>73,81%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -521,136 +527,142 @@
     <t>8,24%</t>
   </si>
   <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
   </si>
   <si>
     <t>12,19%</t>
   </si>
   <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
   </si>
   <si>
     <t>10,38%</t>
   </si>
   <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
   </si>
   <si>
     <t>7,01%</t>
   </si>
   <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
   </si>
   <si>
     <t>10,5%</t>
   </si>
   <si>
-    <t>12,11%</t>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
   </si>
   <si>
     <t>8,9%</t>
   </si>
   <si>
-    <t>10,1%</t>
+    <t>10,11%</t>
   </si>
   <si>
     <t>19,34%</t>
   </si>
   <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>22,18%</t>
   </si>
   <si>
     <t>22,78%</t>
   </si>
   <si>
-    <t>20,57%</t>
-  </si>
-  <si>
-    <t>25,07%</t>
+    <t>20,34%</t>
+  </si>
+  <si>
+    <t>25,01%</t>
   </si>
   <si>
     <t>21,21%</t>
   </si>
   <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>22,88%</t>
+    <t>19,51%</t>
+  </si>
+  <si>
+    <t>22,92%</t>
   </si>
   <si>
     <t>65,42%</t>
   </si>
   <si>
-    <t>62,21%</t>
-  </si>
-  <si>
-    <t>68,4%</t>
+    <t>62,11%</t>
+  </si>
+  <si>
+    <t>68,2%</t>
   </si>
   <si>
     <t>54,53%</t>
   </si>
   <si>
-    <t>51,69%</t>
-  </si>
-  <si>
-    <t>57,65%</t>
+    <t>51,64%</t>
+  </si>
+  <si>
+    <t>57,62%</t>
   </si>
   <si>
     <t>59,51%</t>
   </si>
   <si>
-    <t>57,44%</t>
-  </si>
-  <si>
-    <t>61,82%</t>
+    <t>57,29%</t>
+  </si>
+  <si>
+    <t>61,57%</t>
   </si>
   <si>
     <t>7,0%</t>
   </si>
   <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
   </si>
   <si>
     <t>10,85%</t>
   </si>
   <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
   </si>
   <si>
     <t>9,03%</t>
   </si>
   <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
   </si>
   <si>
     <t>6,11%</t>
   </si>
   <si>
-    <t>5,34%</t>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
   </si>
   <si>
     <t>9,77%</t>
@@ -659,67 +671,70 @@
     <t>8,7%</t>
   </si>
   <si>
+    <t>10,62%</t>
+  </si>
+  <si>
     <t>8,05%</t>
   </si>
   <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
   </si>
   <si>
     <t>19,59%</t>
   </si>
   <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>21,17%</t>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>21,3%</t>
   </si>
   <si>
     <t>23,19%</t>
   </si>
   <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>24,55%</t>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>24,62%</t>
   </si>
   <si>
     <t>21,5%</t>
   </si>
   <si>
-    <t>20,17%</t>
-  </si>
-  <si>
-    <t>22,63%</t>
+    <t>20,32%</t>
+  </si>
+  <si>
+    <t>22,56%</t>
   </si>
   <si>
     <t>67,3%</t>
   </si>
   <si>
-    <t>65,55%</t>
-  </si>
-  <si>
-    <t>69,42%</t>
+    <t>65,52%</t>
+  </si>
+  <si>
+    <t>69,39%</t>
   </si>
   <si>
     <t>56,19%</t>
   </si>
   <si>
-    <t>54,26%</t>
-  </si>
-  <si>
-    <t>60,43%</t>
+    <t>54,12%</t>
+  </si>
+  <si>
+    <t>60,65%</t>
   </si>
   <si>
     <t>61,42%</t>
   </si>
   <si>
-    <t>60,06%</t>
-  </si>
-  <si>
-    <t>63,58%</t>
+    <t>60,04%</t>
+  </si>
+  <si>
+    <t>63,24%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1134,7 +1149,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF2E4F0B-7108-40EE-A7BD-75B61F8CB55A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F381160-33E3-4935-83EC-C6862043BB24}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1596,13 +1611,13 @@
         <v>112717</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1617,13 +1632,13 @@
         <v>119419</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H11" s="7">
         <v>288</v>
@@ -1632,13 +1647,13 @@
         <v>144461</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M11" s="7">
         <v>440</v>
@@ -1647,13 +1662,13 @@
         <v>263880</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1668,13 +1683,13 @@
         <v>343850</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H12" s="7">
         <v>440</v>
@@ -1683,13 +1698,13 @@
         <v>297091</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M12" s="7">
         <v>799</v>
@@ -1698,13 +1713,13 @@
         <v>640940</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1760,7 +1775,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -1772,13 +1787,13 @@
         <v>63768</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H14" s="7">
         <v>181</v>
@@ -1787,13 +1802,13 @@
         <v>122837</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>65</v>
+        <v>93</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M14" s="7">
         <v>256</v>
@@ -1802,13 +1817,13 @@
         <v>186605</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>61</v>
+        <v>96</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1823,13 +1838,13 @@
         <v>53996</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="H15" s="7">
         <v>168</v>
@@ -1838,13 +1853,13 @@
         <v>97361</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="M15" s="7">
         <v>227</v>
@@ -1853,13 +1868,13 @@
         <v>151358</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1874,13 +1889,13 @@
         <v>171348</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="H16" s="7">
         <v>443</v>
@@ -1889,13 +1904,13 @@
         <v>270657</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="M16" s="7">
         <v>646</v>
@@ -1904,13 +1919,13 @@
         <v>442005</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1925,13 +1940,13 @@
         <v>750136</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="H17" s="7">
         <v>724</v>
@@ -1940,13 +1955,13 @@
         <v>568619</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="M17" s="7">
         <v>1351</v>
@@ -1955,13 +1970,13 @@
         <v>1318755</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2017,7 +2032,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2029,13 +2044,13 @@
         <v>44836</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="H19" s="7">
         <v>84</v>
@@ -2044,13 +2059,13 @@
         <v>61412</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="M19" s="7">
         <v>129</v>
@@ -2059,13 +2074,13 @@
         <v>106248</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>131</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2080,13 +2095,13 @@
         <v>36636</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H20" s="7">
         <v>100</v>
@@ -2095,13 +2110,13 @@
         <v>66608</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M20" s="7">
         <v>136</v>
@@ -2110,13 +2125,13 @@
         <v>103244</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2131,13 +2146,13 @@
         <v>160055</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="H21" s="7">
         <v>247</v>
@@ -2146,13 +2161,13 @@
         <v>162820</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="M21" s="7">
         <v>402</v>
@@ -2161,13 +2176,13 @@
         <v>322874</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2182,13 +2197,13 @@
         <v>487245</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H22" s="7">
         <v>616</v>
@@ -2197,13 +2212,13 @@
         <v>583531</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="M22" s="7">
         <v>1056</v>
@@ -2212,13 +2227,13 @@
         <v>1070775</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2274,7 +2289,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2286,13 +2301,13 @@
         <v>79518</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="H24" s="7">
         <v>207</v>
@@ -2301,13 +2316,13 @@
         <v>139797</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="M24" s="7">
         <v>298</v>
@@ -2316,13 +2331,13 @@
         <v>219315</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2337,13 +2352,13 @@
         <v>67637</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="H25" s="7">
         <v>181</v>
@@ -2352,13 +2367,13 @@
         <v>120463</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>128</v>
+        <v>175</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="M25" s="7">
         <v>259</v>
@@ -2367,13 +2382,13 @@
         <v>188099</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2388,13 +2403,13 @@
         <v>186670</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="H26" s="7">
         <v>391</v>
@@ -2403,13 +2418,13 @@
         <v>261302</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="M26" s="7">
         <v>604</v>
@@ -2418,13 +2433,13 @@
         <v>447972</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2439,13 +2454,13 @@
         <v>631578</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="H27" s="7">
         <v>781</v>
@@ -2454,13 +2469,13 @@
         <v>625497</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="M27" s="7">
         <v>1405</v>
@@ -2469,13 +2484,13 @@
         <v>1257075</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2543,13 +2558,13 @@
         <v>236796</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="H29" s="7">
         <v>622</v>
@@ -2558,13 +2573,13 @@
         <v>412573</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="M29" s="7">
         <v>886</v>
@@ -2573,13 +2588,13 @@
         <v>649370</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2594,13 +2609,13 @@
         <v>206644</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>169</v>
+        <v>208</v>
       </c>
       <c r="H30" s="7">
         <v>618</v>
@@ -2609,13 +2624,13 @@
         <v>371649</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>100</v>
+        <v>211</v>
       </c>
       <c r="M30" s="7">
         <v>852</v>
@@ -2624,13 +2639,13 @@
         <v>578293</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2645,13 +2660,13 @@
         <v>663052</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="H31" s="7">
         <v>1459</v>
@@ -2660,13 +2675,13 @@
         <v>882124</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="M31" s="7">
         <v>2217</v>
@@ -2675,13 +2690,13 @@
         <v>1545176</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2696,13 +2711,13 @@
         <v>2277659</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="H32" s="7">
         <v>2661</v>
@@ -2711,13 +2726,13 @@
         <v>2137300</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="M32" s="7">
         <v>4780</v>
@@ -2726,13 +2741,13 @@
         <v>4414959</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2788,7 +2803,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P33B1_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P33B1_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3FE5C20C-07D6-4D61-8065-D8E942A33A5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1B42418B-384A-4E19-A68D-E05BDB712EF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D98CC920-D281-4F14-8584-CC670358785B}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{969E52D2-126C-45CB-AE55-35A40AB72953}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="229">
   <si>
     <t>Población que tiene dificultad para dormirse por la noche en 2023 (Tasa respuesta: 99,91%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>3,86%</t>
   </si>
   <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
   </si>
   <si>
     <t>6,89%</t>
   </si>
   <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
   </si>
   <si>
     <t>5,57%</t>
   </si>
   <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
   </si>
   <si>
     <t>A menudo (alguna vez a la semana)</t>
@@ -104,28 +104,28 @@
     <t>6,55%</t>
   </si>
   <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
   </si>
   <si>
     <t>12,45%</t>
   </si>
   <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
   </si>
   <si>
     <t>9,88%</t>
   </si>
   <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
   </si>
   <si>
     <t>Ocasionalmente (alguna vez al mes)</t>
@@ -134,28 +134,28 @@
     <t>25,33%</t>
   </si>
   <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>35,95%</t>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>34,77%</t>
   </si>
   <si>
     <t>32,8%</t>
   </si>
   <si>
-    <t>26,24%</t>
-  </si>
-  <si>
-    <t>39,3%</t>
+    <t>26,81%</t>
+  </si>
+  <si>
+    <t>39,67%</t>
   </si>
   <si>
     <t>29,55%</t>
   </si>
   <si>
-    <t>24,28%</t>
-  </si>
-  <si>
-    <t>34,98%</t>
+    <t>24,63%</t>
+  </si>
+  <si>
+    <t>35,06%</t>
   </si>
   <si>
     <t>Nunca</t>
@@ -164,28 +164,28 @@
     <t>64,27%</t>
   </si>
   <si>
-    <t>54,48%</t>
-  </si>
-  <si>
-    <t>74,28%</t>
+    <t>55,07%</t>
+  </si>
+  <si>
+    <t>73,39%</t>
   </si>
   <si>
     <t>47,86%</t>
   </si>
   <si>
-    <t>40,97%</t>
-  </si>
-  <si>
-    <t>55,04%</t>
+    <t>40,63%</t>
+  </si>
+  <si>
+    <t>54,99%</t>
   </si>
   <si>
     <t>55,01%</t>
   </si>
   <si>
-    <t>49,31%</t>
-  </si>
-  <si>
-    <t>61,34%</t>
+    <t>48,78%</t>
+  </si>
+  <si>
+    <t>60,41%</t>
   </si>
   <si>
     <t>100%</t>
@@ -197,109 +197,106 @@
     <t>8,15%</t>
   </si>
   <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
   </si>
   <si>
     <t>13,43%</t>
   </si>
   <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
   </si>
   <si>
     <t>10,89%</t>
   </si>
   <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
   </si>
   <si>
     <t>7,6%</t>
   </si>
   <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
   </si>
   <si>
     <t>11,98%</t>
   </si>
   <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
   </si>
   <si>
     <t>21,72%</t>
   </si>
   <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>25,17%</t>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>25,76%</t>
   </si>
   <si>
     <t>24,4%</t>
   </si>
   <si>
-    <t>21,7%</t>
-  </si>
-  <si>
-    <t>27,09%</t>
+    <t>21,9%</t>
+  </si>
+  <si>
+    <t>27,41%</t>
   </si>
   <si>
     <t>23,11%</t>
   </si>
   <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>25,4%</t>
+    <t>20,92%</t>
+  </si>
+  <si>
+    <t>25,45%</t>
   </si>
   <si>
     <t>62,54%</t>
   </si>
   <si>
-    <t>58,65%</t>
-  </si>
-  <si>
-    <t>67,15%</t>
+    <t>57,88%</t>
+  </si>
+  <si>
+    <t>66,4%</t>
   </si>
   <si>
     <t>50,18%</t>
   </si>
   <si>
-    <t>46,77%</t>
-  </si>
-  <si>
-    <t>53,71%</t>
+    <t>46,47%</t>
+  </si>
+  <si>
+    <t>53,45%</t>
   </si>
   <si>
     <t>56,13%</t>
   </si>
   <si>
-    <t>53,54%</t>
-  </si>
-  <si>
-    <t>58,85%</t>
+    <t>53,16%</t>
+  </si>
+  <si>
+    <t>58,75%</t>
   </si>
   <si>
     <t>10-50.000 hab</t>
@@ -308,109 +305,103 @@
     <t>6,14%</t>
   </si>
   <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
   </si>
   <si>
     <t>11,59%</t>
   </si>
   <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
+    <t>13,58%</t>
   </si>
   <si>
     <t>8,89%</t>
   </si>
   <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
+    <t>10,09%</t>
   </si>
   <si>
     <t>5,2%</t>
   </si>
   <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
   </si>
   <si>
     <t>9,19%</t>
   </si>
   <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
   </si>
   <si>
     <t>7,21%</t>
   </si>
   <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
   </si>
   <si>
     <t>16,49%</t>
   </si>
   <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>19,32%</t>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>19,11%</t>
   </si>
   <si>
     <t>25,55%</t>
   </si>
   <si>
-    <t>23,1%</t>
-  </si>
-  <si>
-    <t>27,86%</t>
+    <t>23,36%</t>
+  </si>
+  <si>
+    <t>27,98%</t>
   </si>
   <si>
     <t>21,06%</t>
   </si>
   <si>
-    <t>18,95%</t>
-  </si>
-  <si>
-    <t>22,81%</t>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>22,87%</t>
   </si>
   <si>
     <t>72,18%</t>
   </si>
   <si>
-    <t>68,83%</t>
-  </si>
-  <si>
-    <t>76,51%</t>
+    <t>68,94%</t>
+  </si>
+  <si>
+    <t>76,38%</t>
   </si>
   <si>
     <t>53,67%</t>
   </si>
   <si>
-    <t>51,12%</t>
-  </si>
-  <si>
-    <t>56,73%</t>
+    <t>50,77%</t>
+  </si>
+  <si>
+    <t>56,35%</t>
   </si>
   <si>
     <t>62,84%</t>
   </si>
   <si>
-    <t>60,53%</t>
-  </si>
-  <si>
-    <t>65,99%</t>
+    <t>60,59%</t>
+  </si>
+  <si>
+    <t>66,46%</t>
   </si>
   <si>
     <t>&gt;50.000hab</t>
@@ -419,10 +410,10 @@
     <t>6,15%</t>
   </si>
   <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
   </si>
   <si>
     <t>7,02%</t>
@@ -431,94 +422,97 @@
     <t>4,51%</t>
   </si>
   <si>
-    <t>9,15%</t>
+    <t>9,11%</t>
   </si>
   <si>
     <t>6,63%</t>
   </si>
   <si>
-    <t>4,92%</t>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
   </si>
   <si>
     <t>5,03%</t>
   </si>
   <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
   </si>
   <si>
     <t>7,62%</t>
   </si>
   <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
   </si>
   <si>
     <t>6,44%</t>
   </si>
   <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
   </si>
   <si>
     <t>21,96%</t>
   </si>
   <si>
-    <t>18,51%</t>
-  </si>
-  <si>
-    <t>25,5%</t>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>25,52%</t>
   </si>
   <si>
     <t>18,62%</t>
   </si>
   <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>22,41%</t>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
   </si>
   <si>
     <t>20,14%</t>
   </si>
   <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>22,68%</t>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>22,84%</t>
   </si>
   <si>
     <t>66,86%</t>
   </si>
   <si>
-    <t>62,62%</t>
-  </si>
-  <si>
-    <t>70,84%</t>
+    <t>62,6%</t>
+  </si>
+  <si>
+    <t>70,37%</t>
   </si>
   <si>
     <t>66,74%</t>
   </si>
   <si>
-    <t>60,74%</t>
-  </si>
-  <si>
-    <t>77,91%</t>
+    <t>60,89%</t>
+  </si>
+  <si>
+    <t>77,96%</t>
   </si>
   <si>
     <t>66,79%</t>
   </si>
   <si>
-    <t>63,03%</t>
-  </si>
-  <si>
-    <t>73,81%</t>
+    <t>63,39%</t>
+  </si>
+  <si>
+    <t>74,36%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -527,142 +521,136 @@
     <t>8,24%</t>
   </si>
   <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
   </si>
   <si>
     <t>12,19%</t>
   </si>
   <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
   </si>
   <si>
     <t>10,38%</t>
   </si>
   <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
   </si>
   <si>
     <t>7,01%</t>
   </si>
   <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
   </si>
   <si>
     <t>10,5%</t>
   </si>
   <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
+    <t>12,11%</t>
   </si>
   <si>
     <t>8,9%</t>
   </si>
   <si>
-    <t>10,11%</t>
+    <t>10,1%</t>
   </si>
   <si>
     <t>19,34%</t>
   </si>
   <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>22,18%</t>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>21,97%</t>
   </si>
   <si>
     <t>22,78%</t>
   </si>
   <si>
-    <t>20,34%</t>
-  </si>
-  <si>
-    <t>25,01%</t>
+    <t>20,57%</t>
+  </si>
+  <si>
+    <t>25,07%</t>
   </si>
   <si>
     <t>21,21%</t>
   </si>
   <si>
-    <t>19,51%</t>
-  </si>
-  <si>
-    <t>22,92%</t>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>22,88%</t>
   </si>
   <si>
     <t>65,42%</t>
   </si>
   <si>
-    <t>62,11%</t>
-  </si>
-  <si>
-    <t>68,2%</t>
+    <t>62,21%</t>
+  </si>
+  <si>
+    <t>68,4%</t>
   </si>
   <si>
     <t>54,53%</t>
   </si>
   <si>
-    <t>51,64%</t>
-  </si>
-  <si>
-    <t>57,62%</t>
+    <t>51,69%</t>
+  </si>
+  <si>
+    <t>57,65%</t>
   </si>
   <si>
     <t>59,51%</t>
   </si>
   <si>
-    <t>57,29%</t>
-  </si>
-  <si>
-    <t>61,57%</t>
+    <t>57,44%</t>
+  </si>
+  <si>
+    <t>61,82%</t>
   </si>
   <si>
     <t>7,0%</t>
   </si>
   <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
   </si>
   <si>
     <t>10,85%</t>
   </si>
   <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
   </si>
   <si>
     <t>9,03%</t>
   </si>
   <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
   </si>
   <si>
     <t>6,11%</t>
   </si>
   <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
+    <t>5,34%</t>
   </si>
   <si>
     <t>9,77%</t>
@@ -671,70 +659,67 @@
     <t>8,7%</t>
   </si>
   <si>
-    <t>10,62%</t>
-  </si>
-  <si>
     <t>8,05%</t>
   </si>
   <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
   </si>
   <si>
     <t>19,59%</t>
   </si>
   <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>21,3%</t>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>21,17%</t>
   </si>
   <si>
     <t>23,19%</t>
   </si>
   <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>24,62%</t>
+    <t>21,02%</t>
+  </si>
+  <si>
+    <t>24,55%</t>
   </si>
   <si>
     <t>21,5%</t>
   </si>
   <si>
-    <t>20,32%</t>
-  </si>
-  <si>
-    <t>22,56%</t>
+    <t>20,17%</t>
+  </si>
+  <si>
+    <t>22,63%</t>
   </si>
   <si>
     <t>67,3%</t>
   </si>
   <si>
-    <t>65,52%</t>
-  </si>
-  <si>
-    <t>69,39%</t>
+    <t>65,55%</t>
+  </si>
+  <si>
+    <t>69,42%</t>
   </si>
   <si>
     <t>56,19%</t>
   </si>
   <si>
-    <t>54,12%</t>
-  </si>
-  <si>
-    <t>60,65%</t>
+    <t>54,26%</t>
+  </si>
+  <si>
+    <t>60,43%</t>
   </si>
   <si>
     <t>61,42%</t>
   </si>
   <si>
-    <t>60,04%</t>
-  </si>
-  <si>
-    <t>63,24%</t>
+    <t>60,06%</t>
+  </si>
+  <si>
+    <t>63,58%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1149,7 +1134,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F381160-33E3-4935-83EC-C6862043BB24}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FD0E1A3-D23F-4202-8464-CDAFDA8B71A9}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1611,13 +1596,13 @@
         <v>112717</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1632,13 +1617,13 @@
         <v>119419</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H11" s="7">
         <v>288</v>
@@ -1647,13 +1632,13 @@
         <v>144461</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M11" s="7">
         <v>440</v>
@@ -1662,13 +1647,13 @@
         <v>263880</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1683,13 +1668,13 @@
         <v>343850</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H12" s="7">
         <v>440</v>
@@ -1698,13 +1683,13 @@
         <v>297091</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M12" s="7">
         <v>799</v>
@@ -1713,13 +1698,13 @@
         <v>640940</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1775,7 +1760,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -1787,13 +1772,13 @@
         <v>63768</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H14" s="7">
         <v>181</v>
@@ -1802,13 +1787,13 @@
         <v>122837</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M14" s="7">
         <v>256</v>
@@ -1817,13 +1802,13 @@
         <v>186605</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>96</v>
+        <v>61</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1838,13 +1823,13 @@
         <v>53996</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="H15" s="7">
         <v>168</v>
@@ -1853,13 +1838,13 @@
         <v>97361</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="M15" s="7">
         <v>227</v>
@@ -1868,13 +1853,13 @@
         <v>151358</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1889,13 +1874,13 @@
         <v>171348</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="H16" s="7">
         <v>443</v>
@@ -1904,13 +1889,13 @@
         <v>270657</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="M16" s="7">
         <v>646</v>
@@ -1919,13 +1904,13 @@
         <v>442005</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1940,13 +1925,13 @@
         <v>750136</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H17" s="7">
         <v>724</v>
@@ -1955,13 +1940,13 @@
         <v>568619</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="M17" s="7">
         <v>1351</v>
@@ -1970,13 +1955,13 @@
         <v>1318755</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2032,7 +2017,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2044,13 +2029,13 @@
         <v>44836</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="H19" s="7">
         <v>84</v>
@@ -2059,13 +2044,13 @@
         <v>61412</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="M19" s="7">
         <v>129</v>
@@ -2074,13 +2059,13 @@
         <v>106248</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>52</v>
+        <v>131</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2095,13 +2080,13 @@
         <v>36636</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="H20" s="7">
         <v>100</v>
@@ -2110,13 +2095,13 @@
         <v>66608</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="M20" s="7">
         <v>136</v>
@@ -2125,13 +2110,13 @@
         <v>103244</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2146,13 +2131,13 @@
         <v>160055</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="H21" s="7">
         <v>247</v>
@@ -2161,13 +2146,13 @@
         <v>162820</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="M21" s="7">
         <v>402</v>
@@ -2176,13 +2161,13 @@
         <v>322874</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2197,13 +2182,13 @@
         <v>487245</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="H22" s="7">
         <v>616</v>
@@ -2212,13 +2197,13 @@
         <v>583531</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="M22" s="7">
         <v>1056</v>
@@ -2227,13 +2212,13 @@
         <v>1070775</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2289,7 +2274,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2301,13 +2286,13 @@
         <v>79518</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="H24" s="7">
         <v>207</v>
@@ -2316,13 +2301,13 @@
         <v>139797</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="M24" s="7">
         <v>298</v>
@@ -2331,13 +2316,13 @@
         <v>219315</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2352,13 +2337,13 @@
         <v>67637</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="H25" s="7">
         <v>181</v>
@@ -2367,13 +2352,13 @@
         <v>120463</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>175</v>
+        <v>128</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="M25" s="7">
         <v>259</v>
@@ -2382,13 +2367,13 @@
         <v>188099</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2403,13 +2388,13 @@
         <v>186670</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="H26" s="7">
         <v>391</v>
@@ -2418,13 +2403,13 @@
         <v>261302</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="M26" s="7">
         <v>604</v>
@@ -2433,13 +2418,13 @@
         <v>447972</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2454,13 +2439,13 @@
         <v>631578</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="H27" s="7">
         <v>781</v>
@@ -2469,13 +2454,13 @@
         <v>625497</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="M27" s="7">
         <v>1405</v>
@@ -2484,13 +2469,13 @@
         <v>1257075</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2558,13 +2543,13 @@
         <v>236796</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="H29" s="7">
         <v>622</v>
@@ -2573,13 +2558,13 @@
         <v>412573</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="M29" s="7">
         <v>886</v>
@@ -2588,13 +2573,13 @@
         <v>649370</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2609,13 +2594,13 @@
         <v>206644</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>208</v>
+        <v>169</v>
       </c>
       <c r="H30" s="7">
         <v>618</v>
@@ -2624,13 +2609,13 @@
         <v>371649</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>211</v>
+        <v>100</v>
       </c>
       <c r="M30" s="7">
         <v>852</v>
@@ -2639,13 +2624,13 @@
         <v>578293</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2660,13 +2645,13 @@
         <v>663052</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="H31" s="7">
         <v>1459</v>
@@ -2675,13 +2660,13 @@
         <v>882124</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="M31" s="7">
         <v>2217</v>
@@ -2690,13 +2675,13 @@
         <v>1545176</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2711,13 +2696,13 @@
         <v>2277659</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="H32" s="7">
         <v>2661</v>
@@ -2726,13 +2711,13 @@
         <v>2137300</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="M32" s="7">
         <v>4780</v>
@@ -2741,13 +2726,13 @@
         <v>4414959</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2803,7 +2788,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P33B1_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P33B1_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1B42418B-384A-4E19-A68D-E05BDB712EF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6D949D78-359B-4BE1-AE7E-28A7EFD8EA5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{969E52D2-126C-45CB-AE55-35A40AB72953}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{3121E172-8D14-4E37-9186-10A49B43B0F3}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="194">
   <si>
     <t>Población que tiene dificultad para dormirse por la noche en 2023 (Tasa respuesta: 99,91%)</t>
   </si>
@@ -65,661 +65,556 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Diariamente o casi diariamente</t>
   </si>
   <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
   </si>
   <si>
     <t>A menudo (alguna vez a la semana)</t>
   </si>
   <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>Ocasionalmente (alguna vez al mes)</t>
+  </si>
+  <si>
+    <t>21,41%</t>
+  </si>
+  <si>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>24,58%</t>
+  </si>
+  <si>
+    <t>25,85%</t>
+  </si>
+  <si>
+    <t>23,4%</t>
+  </si>
+  <si>
+    <t>28,37%</t>
+  </si>
+  <si>
+    <t>23,7%</t>
+  </si>
+  <si>
+    <t>21,73%</t>
+  </si>
+  <si>
+    <t>25,8%</t>
+  </si>
+  <si>
+    <t>Nunca</t>
+  </si>
+  <si>
+    <t>64,12%</t>
+  </si>
+  <si>
+    <t>60,38%</t>
+  </si>
+  <si>
+    <t>68,18%</t>
+  </si>
+  <si>
+    <t>50,24%</t>
+  </si>
+  <si>
+    <t>47,08%</t>
+  </si>
+  <si>
+    <t>53,37%</t>
+  </si>
+  <si>
+    <t>56,97%</t>
+  </si>
+  <si>
+    <t>54,49%</t>
+  </si>
+  <si>
+    <t>59,51%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>25,45%</t>
+  </si>
+  <si>
+    <t>23,3%</t>
+  </si>
+  <si>
+    <t>27,87%</t>
+  </si>
+  <si>
+    <t>18,72%</t>
   </si>
   <si>
     <t>12,44%</t>
   </si>
   <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>Ocasionalmente (alguna vez al mes)</t>
-  </si>
-  <si>
-    <t>25,33%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>34,77%</t>
-  </si>
-  <si>
-    <t>32,8%</t>
-  </si>
-  <si>
-    <t>26,81%</t>
-  </si>
-  <si>
-    <t>39,67%</t>
-  </si>
-  <si>
-    <t>29,55%</t>
-  </si>
-  <si>
-    <t>24,63%</t>
-  </si>
-  <si>
-    <t>35,06%</t>
-  </si>
-  <si>
-    <t>Nunca</t>
-  </si>
-  <si>
-    <t>64,27%</t>
-  </si>
-  <si>
-    <t>55,07%</t>
-  </si>
-  <si>
-    <t>73,39%</t>
-  </si>
-  <si>
-    <t>47,86%</t>
-  </si>
-  <si>
-    <t>40,63%</t>
-  </si>
-  <si>
-    <t>54,99%</t>
-  </si>
-  <si>
-    <t>55,01%</t>
-  </si>
-  <si>
-    <t>48,78%</t>
-  </si>
-  <si>
-    <t>60,41%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
+    <t>21,76%</t>
+  </si>
+  <si>
+    <t>77,5%</t>
+  </si>
+  <si>
+    <t>70,88%</t>
+  </si>
+  <si>
+    <t>87,62%</t>
+  </si>
+  <si>
+    <t>53,96%</t>
+  </si>
+  <si>
+    <t>51,1%</t>
+  </si>
+  <si>
+    <t>56,69%</t>
+  </si>
+  <si>
+    <t>67,01%</t>
+  </si>
+  <si>
+    <t>62,03%</t>
+  </si>
+  <si>
+    <t>77,55%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>21,65%</t>
+  </si>
+  <si>
+    <t>18,32%</t>
+  </si>
+  <si>
+    <t>25,41%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>18,52%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>22,07%</t>
+  </si>
+  <si>
+    <t>67,53%</t>
+  </si>
+  <si>
+    <t>63,16%</t>
+  </si>
+  <si>
+    <t>71,11%</t>
+  </si>
+  <si>
+    <t>71,46%</t>
+  </si>
+  <si>
+    <t>62,08%</t>
+  </si>
+  <si>
+    <t>84,31%</t>
+  </si>
+  <si>
+    <t>69,77%</t>
+  </si>
+  <si>
+    <t>64,63%</t>
+  </si>
+  <si>
+    <t>80,78%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
   </si>
   <si>
     <t>10,0%</t>
   </si>
   <si>
-    <t>14,63%</t>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>21,36%</t>
+  </si>
+  <si>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>17,36%</t>
+  </si>
+  <si>
+    <t>23,97%</t>
+  </si>
+  <si>
+    <t>20,25%</t>
+  </si>
+  <si>
+    <t>22,01%</t>
+  </si>
+  <si>
+    <t>66,28%</t>
+  </si>
+  <si>
+    <t>63,04%</t>
+  </si>
+  <si>
+    <t>69,42%</t>
+  </si>
+  <si>
+    <t>57,24%</t>
+  </si>
+  <si>
+    <t>53,06%</t>
+  </si>
+  <si>
+    <t>66,39%</t>
+  </si>
+  <si>
+    <t>61,39%</t>
+  </si>
+  <si>
+    <t>58,78%</t>
+  </si>
+  <si>
+    <t>66,14%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
   </si>
   <si>
     <t>8,39%</t>
   </si>
   <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>21,72%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>25,76%</t>
-  </si>
-  <si>
-    <t>24,4%</t>
-  </si>
-  <si>
-    <t>21,9%</t>
-  </si>
-  <si>
-    <t>27,41%</t>
-  </si>
-  <si>
-    <t>23,11%</t>
-  </si>
-  <si>
-    <t>20,92%</t>
-  </si>
-  <si>
-    <t>25,45%</t>
-  </si>
-  <si>
-    <t>62,54%</t>
-  </si>
-  <si>
-    <t>57,88%</t>
-  </si>
-  <si>
-    <t>66,4%</t>
-  </si>
-  <si>
-    <t>50,18%</t>
-  </si>
-  <si>
-    <t>46,47%</t>
-  </si>
-  <si>
-    <t>53,45%</t>
-  </si>
-  <si>
-    <t>56,13%</t>
-  </si>
-  <si>
-    <t>53,16%</t>
-  </si>
-  <si>
-    <t>58,75%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>25,55%</t>
-  </si>
-  <si>
-    <t>23,36%</t>
-  </si>
-  <si>
-    <t>27,98%</t>
-  </si>
-  <si>
-    <t>21,06%</t>
-  </si>
-  <si>
-    <t>18,96%</t>
-  </si>
-  <si>
-    <t>22,87%</t>
-  </si>
-  <si>
-    <t>72,18%</t>
-  </si>
-  <si>
-    <t>68,94%</t>
-  </si>
-  <si>
-    <t>76,38%</t>
-  </si>
-  <si>
-    <t>53,67%</t>
-  </si>
-  <si>
-    <t>50,77%</t>
-  </si>
-  <si>
-    <t>56,35%</t>
-  </si>
-  <si>
-    <t>62,84%</t>
-  </si>
-  <si>
-    <t>60,59%</t>
-  </si>
-  <si>
-    <t>66,46%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>21,96%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>25,52%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>22,12%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>22,84%</t>
-  </si>
-  <si>
-    <t>66,86%</t>
-  </si>
-  <si>
-    <t>62,6%</t>
-  </si>
-  <si>
-    <t>70,37%</t>
-  </si>
-  <si>
-    <t>66,74%</t>
-  </si>
-  <si>
-    <t>60,89%</t>
-  </si>
-  <si>
-    <t>77,96%</t>
-  </si>
-  <si>
-    <t>66,79%</t>
-  </si>
-  <si>
-    <t>63,39%</t>
-  </si>
-  <si>
-    <t>74,36%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>22,78%</t>
-  </si>
-  <si>
-    <t>20,57%</t>
-  </si>
-  <si>
-    <t>25,07%</t>
-  </si>
-  <si>
-    <t>21,21%</t>
-  </si>
-  <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>22,88%</t>
-  </si>
-  <si>
-    <t>65,42%</t>
-  </si>
-  <si>
-    <t>62,21%</t>
-  </si>
-  <si>
-    <t>68,4%</t>
-  </si>
-  <si>
-    <t>54,53%</t>
-  </si>
-  <si>
-    <t>51,69%</t>
-  </si>
-  <si>
-    <t>57,65%</t>
-  </si>
-  <si>
-    <t>59,51%</t>
-  </si>
-  <si>
-    <t>57,44%</t>
-  </si>
-  <si>
-    <t>61,82%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>19,59%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>21,17%</t>
-  </si>
-  <si>
-    <t>23,19%</t>
-  </si>
-  <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>24,55%</t>
-  </si>
-  <si>
-    <t>21,5%</t>
-  </si>
-  <si>
-    <t>20,17%</t>
-  </si>
-  <si>
-    <t>22,63%</t>
-  </si>
-  <si>
-    <t>67,3%</t>
-  </si>
-  <si>
-    <t>65,55%</t>
-  </si>
-  <si>
-    <t>69,42%</t>
-  </si>
-  <si>
-    <t>56,19%</t>
-  </si>
-  <si>
-    <t>54,26%</t>
-  </si>
-  <si>
-    <t>60,43%</t>
-  </si>
-  <si>
-    <t>61,42%</t>
-  </si>
-  <si>
-    <t>60,06%</t>
-  </si>
-  <si>
-    <t>63,58%</t>
+    <t>17,96%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>21,98%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
+  </si>
+  <si>
+    <t>23,92%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>17,14%</t>
+  </si>
+  <si>
+    <t>21,7%</t>
+  </si>
+  <si>
+    <t>70,01%</t>
+  </si>
+  <si>
+    <t>67,11%</t>
+  </si>
+  <si>
+    <t>77,73%</t>
+  </si>
+  <si>
+    <t>58,72%</t>
+  </si>
+  <si>
+    <t>55,46%</t>
+  </si>
+  <si>
+    <t>66,59%</t>
+  </si>
+  <si>
+    <t>64,21%</t>
+  </si>
+  <si>
+    <t>61,6%</t>
+  </si>
+  <si>
+    <t>69,3%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1134,8 +1029,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FD0E1A3-D23F-4202-8464-CDAFDA8B71A9}">
-  <dimension ref="A1:Q34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED814474-F3DC-4120-987C-C92769A9ABE5}">
+  <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1252,10 +1147,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>5</v>
+        <v>53</v>
       </c>
       <c r="D4" s="7">
-        <v>3891</v>
+        <v>44483</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1267,10 +1162,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>17</v>
+        <v>150</v>
       </c>
       <c r="I4" s="7">
-        <v>9014</v>
+        <v>79873</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1282,10 +1177,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>22</v>
+        <v>203</v>
       </c>
       <c r="N4" s="7">
-        <v>12905</v>
+        <v>124356</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1303,10 +1198,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>8</v>
+        <v>61</v>
       </c>
       <c r="D5" s="7">
-        <v>6604</v>
+        <v>47311</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1318,10 +1213,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>36</v>
+        <v>169</v>
       </c>
       <c r="I5" s="7">
-        <v>16271</v>
+        <v>81512</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1333,10 +1228,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>44</v>
+        <v>230</v>
       </c>
       <c r="N5" s="7">
-        <v>22875</v>
+        <v>128823</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1354,10 +1249,10 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>35</v>
+        <v>187</v>
       </c>
       <c r="D6" s="7">
-        <v>25560</v>
+        <v>135822</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -1369,10 +1264,10 @@
         <v>33</v>
       </c>
       <c r="H6" s="7">
-        <v>90</v>
+        <v>378</v>
       </c>
       <c r="I6" s="7">
-        <v>42885</v>
+        <v>174445</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -1384,10 +1279,10 @@
         <v>36</v>
       </c>
       <c r="M6" s="7">
-        <v>125</v>
+        <v>565</v>
       </c>
       <c r="N6" s="7">
-        <v>68445</v>
+        <v>310267</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>37</v>
@@ -1405,10 +1300,10 @@
         <v>40</v>
       </c>
       <c r="C7" s="7">
-        <v>69</v>
+        <v>428</v>
       </c>
       <c r="D7" s="7">
-        <v>64850</v>
+        <v>406795</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>41</v>
@@ -1420,10 +1315,10 @@
         <v>43</v>
       </c>
       <c r="H7" s="7">
-        <v>100</v>
+        <v>540</v>
       </c>
       <c r="I7" s="7">
-        <v>62563</v>
+        <v>339037</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>44</v>
@@ -1435,10 +1330,10 @@
         <v>46</v>
       </c>
       <c r="M7" s="7">
-        <v>169</v>
+        <v>968</v>
       </c>
       <c r="N7" s="7">
-        <v>127413</v>
+        <v>745833</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>47</v>
@@ -1456,10 +1351,10 @@
         <v>3</v>
       </c>
       <c r="C8" s="7">
-        <v>117</v>
+        <v>729</v>
       </c>
       <c r="D8" s="7">
-        <v>100905</v>
+        <v>634412</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>50</v>
@@ -1471,10 +1366,10 @@
         <v>50</v>
       </c>
       <c r="H8" s="7">
-        <v>243</v>
+        <v>1237</v>
       </c>
       <c r="I8" s="7">
-        <v>130733</v>
+        <v>674867</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>50</v>
@@ -1486,10 +1381,10 @@
         <v>50</v>
       </c>
       <c r="M8" s="7">
-        <v>360</v>
+        <v>1966</v>
       </c>
       <c r="N8" s="7">
-        <v>231638</v>
+        <v>1309279</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>50</v>
@@ -1509,10 +1404,10 @@
         <v>10</v>
       </c>
       <c r="C9" s="7">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="D9" s="7">
-        <v>44783</v>
+        <v>57290</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>52</v>
@@ -1524,10 +1419,10 @@
         <v>54</v>
       </c>
       <c r="H9" s="7">
-        <v>133</v>
+        <v>181</v>
       </c>
       <c r="I9" s="7">
-        <v>79513</v>
+        <v>108141</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>55</v>
@@ -1539,10 +1434,10 @@
         <v>57</v>
       </c>
       <c r="M9" s="7">
-        <v>181</v>
+        <v>256</v>
       </c>
       <c r="N9" s="7">
-        <v>124296</v>
+        <v>165431</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>58</v>
@@ -1560,10 +1455,10 @@
         <v>20</v>
       </c>
       <c r="C10" s="7">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="D10" s="7">
-        <v>41771</v>
+        <v>52279</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>61</v>
@@ -1575,10 +1470,10 @@
         <v>63</v>
       </c>
       <c r="H10" s="7">
-        <v>133</v>
+        <v>168</v>
       </c>
       <c r="I10" s="7">
-        <v>70946</v>
+        <v>89089</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>64</v>
@@ -1590,19 +1485,19 @@
         <v>66</v>
       </c>
       <c r="M10" s="7">
-        <v>186</v>
+        <v>227</v>
       </c>
       <c r="N10" s="7">
-        <v>112717</v>
+        <v>141367</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1611,10 +1506,10 @@
         <v>30</v>
       </c>
       <c r="C11" s="7">
-        <v>152</v>
+        <v>203</v>
       </c>
       <c r="D11" s="7">
-        <v>119419</v>
+        <v>158846</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>69</v>
@@ -1626,10 +1521,10 @@
         <v>71</v>
       </c>
       <c r="H11" s="7">
-        <v>288</v>
+        <v>443</v>
       </c>
       <c r="I11" s="7">
-        <v>144461</v>
+        <v>243855</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>72</v>
@@ -1641,10 +1536,10 @@
         <v>74</v>
       </c>
       <c r="M11" s="7">
-        <v>440</v>
+        <v>646</v>
       </c>
       <c r="N11" s="7">
-        <v>263880</v>
+        <v>402701</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>75</v>
@@ -1662,10 +1557,10 @@
         <v>40</v>
       </c>
       <c r="C12" s="7">
-        <v>359</v>
+        <v>627</v>
       </c>
       <c r="D12" s="7">
-        <v>343850</v>
+        <v>924449</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>78</v>
@@ -1677,10 +1572,10 @@
         <v>80</v>
       </c>
       <c r="H12" s="7">
-        <v>440</v>
+        <v>724</v>
       </c>
       <c r="I12" s="7">
-        <v>297091</v>
+        <v>517022</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>81</v>
@@ -1692,10 +1587,10 @@
         <v>83</v>
       </c>
       <c r="M12" s="7">
-        <v>799</v>
+        <v>1351</v>
       </c>
       <c r="N12" s="7">
-        <v>640940</v>
+        <v>1441472</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>84</v>
@@ -1713,10 +1608,10 @@
         <v>3</v>
       </c>
       <c r="C13" s="7">
-        <v>612</v>
+        <v>964</v>
       </c>
       <c r="D13" s="7">
-        <v>549823</v>
+        <v>1192864</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>50</v>
@@ -1728,10 +1623,10 @@
         <v>50</v>
       </c>
       <c r="H13" s="7">
-        <v>994</v>
+        <v>1516</v>
       </c>
       <c r="I13" s="7">
-        <v>592011</v>
+        <v>958106</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>50</v>
@@ -1743,10 +1638,10 @@
         <v>50</v>
       </c>
       <c r="M13" s="7">
-        <v>1606</v>
+        <v>2480</v>
       </c>
       <c r="N13" s="7">
-        <v>1141834</v>
+        <v>2150971</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>50</v>
@@ -1766,10 +1661,10 @@
         <v>10</v>
       </c>
       <c r="C14" s="7">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="D14" s="7">
-        <v>63768</v>
+        <v>40537</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>88</v>
@@ -1781,34 +1676,34 @@
         <v>90</v>
       </c>
       <c r="H14" s="7">
-        <v>181</v>
+        <v>84</v>
       </c>
       <c r="I14" s="7">
-        <v>122837</v>
+        <v>53570</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>91</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>65</v>
+        <v>92</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M14" s="7">
-        <v>256</v>
+        <v>129</v>
       </c>
       <c r="N14" s="7">
-        <v>186605</v>
+        <v>94107</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1817,40 +1712,40 @@
         <v>20</v>
       </c>
       <c r="C15" s="7">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="D15" s="7">
-        <v>53996</v>
+        <v>35699</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H15" s="7">
-        <v>168</v>
+        <v>100</v>
       </c>
       <c r="I15" s="7">
-        <v>97361</v>
+        <v>61953</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>100</v>
+        <v>64</v>
       </c>
       <c r="M15" s="7">
-        <v>227</v>
+        <v>136</v>
       </c>
       <c r="N15" s="7">
-        <v>151358</v>
+        <v>97651</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>101</v>
@@ -1868,10 +1763,10 @@
         <v>30</v>
       </c>
       <c r="C16" s="7">
-        <v>203</v>
+        <v>155</v>
       </c>
       <c r="D16" s="7">
-        <v>171348</v>
+        <v>152549</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>104</v>
@@ -1883,10 +1778,10 @@
         <v>106</v>
       </c>
       <c r="H16" s="7">
-        <v>443</v>
+        <v>247</v>
       </c>
       <c r="I16" s="7">
-        <v>270657</v>
+        <v>150885</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>107</v>
@@ -1898,10 +1793,10 @@
         <v>109</v>
       </c>
       <c r="M16" s="7">
-        <v>646</v>
+        <v>402</v>
       </c>
       <c r="N16" s="7">
-        <v>442005</v>
+        <v>303433</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>110</v>
@@ -1919,10 +1814,10 @@
         <v>40</v>
       </c>
       <c r="C17" s="7">
-        <v>627</v>
+        <v>440</v>
       </c>
       <c r="D17" s="7">
-        <v>750136</v>
+        <v>475896</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>113</v>
@@ -1934,10 +1829,10 @@
         <v>115</v>
       </c>
       <c r="H17" s="7">
-        <v>724</v>
+        <v>616</v>
       </c>
       <c r="I17" s="7">
-        <v>568619</v>
+        <v>666959</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>116</v>
@@ -1949,10 +1844,10 @@
         <v>118</v>
       </c>
       <c r="M17" s="7">
-        <v>1351</v>
+        <v>1056</v>
       </c>
       <c r="N17" s="7">
-        <v>1318755</v>
+        <v>1142854</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>119</v>
@@ -1970,10 +1865,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>964</v>
+        <v>676</v>
       </c>
       <c r="D18" s="7">
-        <v>1039248</v>
+        <v>704680</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>50</v>
@@ -1985,10 +1880,10 @@
         <v>50</v>
       </c>
       <c r="H18" s="7">
-        <v>1516</v>
+        <v>1047</v>
       </c>
       <c r="I18" s="7">
-        <v>1059474</v>
+        <v>933366</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>50</v>
@@ -2000,10 +1895,10 @@
         <v>50</v>
       </c>
       <c r="M18" s="7">
-        <v>2480</v>
+        <v>1723</v>
       </c>
       <c r="N18" s="7">
-        <v>2098722</v>
+        <v>1638046</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>50</v>
@@ -2023,10 +1918,10 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>45</v>
+        <v>91</v>
       </c>
       <c r="D19" s="7">
-        <v>44836</v>
+        <v>73054</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>123</v>
@@ -2038,10 +1933,10 @@
         <v>125</v>
       </c>
       <c r="H19" s="7">
-        <v>84</v>
+        <v>207</v>
       </c>
       <c r="I19" s="7">
-        <v>61412</v>
+        <v>122727</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>126</v>
@@ -2053,10 +1948,10 @@
         <v>128</v>
       </c>
       <c r="M19" s="7">
-        <v>129</v>
+        <v>298</v>
       </c>
       <c r="N19" s="7">
-        <v>106248</v>
+        <v>195781</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>129</v>
@@ -2074,10 +1969,10 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="D20" s="7">
-        <v>36636</v>
+        <v>65590</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>132</v>
@@ -2089,10 +1984,10 @@
         <v>134</v>
       </c>
       <c r="H20" s="7">
-        <v>100</v>
+        <v>181</v>
       </c>
       <c r="I20" s="7">
-        <v>66608</v>
+        <v>109196</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>135</v>
@@ -2104,10 +1999,10 @@
         <v>137</v>
       </c>
       <c r="M20" s="7">
-        <v>136</v>
+        <v>259</v>
       </c>
       <c r="N20" s="7">
-        <v>103244</v>
+        <v>174787</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>138</v>
@@ -2125,10 +2020,10 @@
         <v>30</v>
       </c>
       <c r="C21" s="7">
-        <v>155</v>
+        <v>213</v>
       </c>
       <c r="D21" s="7">
-        <v>160055</v>
+        <v>173845</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>141</v>
@@ -2140,10 +2035,10 @@
         <v>143</v>
       </c>
       <c r="H21" s="7">
-        <v>247</v>
+        <v>391</v>
       </c>
       <c r="I21" s="7">
-        <v>162820</v>
+        <v>234983</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>144</v>
@@ -2155,19 +2050,19 @@
         <v>146</v>
       </c>
       <c r="M21" s="7">
-        <v>402</v>
+        <v>604</v>
       </c>
       <c r="N21" s="7">
-        <v>322874</v>
+        <v>408827</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>147</v>
       </c>
       <c r="P21" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2176,49 +2071,49 @@
         <v>40</v>
       </c>
       <c r="C22" s="7">
-        <v>440</v>
+        <v>624</v>
       </c>
       <c r="D22" s="7">
-        <v>487245</v>
+        <v>614342</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="H22" s="7">
+        <v>781</v>
+      </c>
+      <c r="I22" s="7">
+        <v>625121</v>
+      </c>
+      <c r="J22" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="H22" s="7">
-        <v>616</v>
-      </c>
-      <c r="I22" s="7">
-        <v>583531</v>
-      </c>
-      <c r="J22" s="7" t="s">
+      <c r="K22" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="L22" s="7" t="s">
+      <c r="M22" s="7">
+        <v>1405</v>
+      </c>
+      <c r="N22" s="7">
+        <v>1239463</v>
+      </c>
+      <c r="O22" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="M22" s="7">
-        <v>1056</v>
-      </c>
-      <c r="N22" s="7">
-        <v>1070775</v>
-      </c>
-      <c r="O22" s="7" t="s">
+      <c r="P22" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2227,10 +2122,10 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>676</v>
+        <v>1006</v>
       </c>
       <c r="D23" s="7">
-        <v>728772</v>
+        <v>926831</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>50</v>
@@ -2242,10 +2137,10 @@
         <v>50</v>
       </c>
       <c r="H23" s="7">
-        <v>1047</v>
+        <v>1560</v>
       </c>
       <c r="I23" s="7">
-        <v>874371</v>
+        <v>1092027</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>50</v>
@@ -2257,10 +2152,10 @@
         <v>50</v>
       </c>
       <c r="M23" s="7">
-        <v>1723</v>
+        <v>2566</v>
       </c>
       <c r="N23" s="7">
-        <v>1603142</v>
+        <v>2018858</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>50</v>
@@ -2274,55 +2169,55 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>159</v>
+        <v>3</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>91</v>
+        <v>264</v>
       </c>
       <c r="D24" s="7">
-        <v>79518</v>
+        <v>215365</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="H24" s="7">
+        <v>622</v>
+      </c>
+      <c r="I24" s="7">
+        <v>364310</v>
+      </c>
+      <c r="J24" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="K24" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="H24" s="7">
-        <v>207</v>
-      </c>
-      <c r="I24" s="7">
-        <v>139797</v>
-      </c>
-      <c r="J24" s="7" t="s">
+      <c r="M24" s="7">
+        <v>886</v>
+      </c>
+      <c r="N24" s="7">
+        <v>579675</v>
+      </c>
+      <c r="O24" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="P24" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="L24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="M24" s="7">
-        <v>298</v>
-      </c>
-      <c r="N24" s="7">
-        <v>219315</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2331,49 +2226,49 @@
         <v>20</v>
       </c>
       <c r="C25" s="7">
-        <v>78</v>
+        <v>234</v>
       </c>
       <c r="D25" s="7">
-        <v>67637</v>
+        <v>200879</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="H25" s="7">
+        <v>618</v>
+      </c>
+      <c r="I25" s="7">
+        <v>341750</v>
+      </c>
+      <c r="J25" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="K25" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="G25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="H25" s="7">
-        <v>181</v>
-      </c>
-      <c r="I25" s="7">
-        <v>120463</v>
-      </c>
-      <c r="J25" s="7" t="s">
+      <c r="M25" s="7">
+        <v>852</v>
+      </c>
+      <c r="N25" s="7">
+        <v>542628</v>
+      </c>
+      <c r="O25" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="K25" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="L25" s="7" t="s">
+      <c r="P25" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="M25" s="7">
-        <v>259</v>
-      </c>
-      <c r="N25" s="7">
-        <v>188099</v>
-      </c>
-      <c r="O25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2382,49 +2277,49 @@
         <v>30</v>
       </c>
       <c r="C26" s="7">
-        <v>213</v>
+        <v>758</v>
       </c>
       <c r="D26" s="7">
-        <v>186670</v>
+        <v>621062</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="G26" s="7" t="s">
+      <c r="H26" s="7">
+        <v>1459</v>
+      </c>
+      <c r="I26" s="7">
+        <v>804167</v>
+      </c>
+      <c r="J26" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="H26" s="7">
-        <v>391</v>
-      </c>
-      <c r="I26" s="7">
-        <v>261302</v>
-      </c>
-      <c r="J26" s="7" t="s">
+      <c r="K26" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="L26" s="7" t="s">
+      <c r="M26" s="7">
+        <v>2217</v>
+      </c>
+      <c r="N26" s="7">
+        <v>1425229</v>
+      </c>
+      <c r="O26" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="M26" s="7">
-        <v>604</v>
-      </c>
-      <c r="N26" s="7">
-        <v>447972</v>
-      </c>
-      <c r="O26" s="7" t="s">
+      <c r="P26" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2433,49 +2328,49 @@
         <v>40</v>
       </c>
       <c r="C27" s="7">
-        <v>624</v>
+        <v>2119</v>
       </c>
       <c r="D27" s="7">
-        <v>631578</v>
+        <v>2421482</v>
       </c>
       <c r="E27" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="F27" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="G27" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="G27" s="7" t="s">
+      <c r="H27" s="7">
+        <v>2661</v>
+      </c>
+      <c r="I27" s="7">
+        <v>2148139</v>
+      </c>
+      <c r="J27" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="H27" s="7">
-        <v>781</v>
-      </c>
-      <c r="I27" s="7">
-        <v>625497</v>
-      </c>
-      <c r="J27" s="7" t="s">
+      <c r="K27" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="K27" s="7" t="s">
+      <c r="L27" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="L27" s="7" t="s">
+      <c r="M27" s="7">
+        <v>4780</v>
+      </c>
+      <c r="N27" s="7">
+        <v>4569622</v>
+      </c>
+      <c r="O27" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="M27" s="7">
-        <v>1405</v>
-      </c>
-      <c r="N27" s="7">
-        <v>1257075</v>
-      </c>
-      <c r="O27" s="7" t="s">
+      <c r="P27" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="P27" s="7" t="s">
+      <c r="Q27" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2484,10 +2379,10 @@
         <v>3</v>
       </c>
       <c r="C28" s="7">
-        <v>1006</v>
+        <v>3375</v>
       </c>
       <c r="D28" s="7">
-        <v>965403</v>
+        <v>3458787</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>50</v>
@@ -2499,10 +2394,10 @@
         <v>50</v>
       </c>
       <c r="H28" s="7">
-        <v>1560</v>
+        <v>5360</v>
       </c>
       <c r="I28" s="7">
-        <v>1147058</v>
+        <v>3658366</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>50</v>
@@ -2514,10 +2409,10 @@
         <v>50</v>
       </c>
       <c r="M28" s="7">
-        <v>2566</v>
+        <v>8735</v>
       </c>
       <c r="N28" s="7">
-        <v>2112461</v>
+        <v>7117154</v>
       </c>
       <c r="O28" s="7" t="s">
         <v>50</v>
@@ -2530,273 +2425,15 @@
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C29" s="7">
-        <v>264</v>
-      </c>
-      <c r="D29" s="7">
-        <v>236796</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="H29" s="7">
-        <v>622</v>
-      </c>
-      <c r="I29" s="7">
-        <v>412573</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="M29" s="7">
-        <v>886</v>
-      </c>
-      <c r="N29" s="7">
-        <v>649370</v>
-      </c>
-      <c r="O29" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A30" s="1"/>
-      <c r="B30" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C30" s="7">
-        <v>234</v>
-      </c>
-      <c r="D30" s="7">
-        <v>206644</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="H30" s="7">
-        <v>618</v>
-      </c>
-      <c r="I30" s="7">
-        <v>371649</v>
-      </c>
-      <c r="J30" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="M30" s="7">
-        <v>852</v>
-      </c>
-      <c r="N30" s="7">
-        <v>578293</v>
-      </c>
-      <c r="O30" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A31" s="1"/>
-      <c r="B31" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C31" s="7">
-        <v>758</v>
-      </c>
-      <c r="D31" s="7">
-        <v>663052</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="H31" s="7">
-        <v>1459</v>
-      </c>
-      <c r="I31" s="7">
-        <v>882124</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="M31" s="7">
-        <v>2217</v>
-      </c>
-      <c r="N31" s="7">
-        <v>1545176</v>
-      </c>
-      <c r="O31" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" s="1"/>
-      <c r="B32" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C32" s="7">
-        <v>2119</v>
-      </c>
-      <c r="D32" s="7">
-        <v>2277659</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="H32" s="7">
-        <v>2661</v>
-      </c>
-      <c r="I32" s="7">
-        <v>2137300</v>
-      </c>
-      <c r="J32" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="M32" s="7">
-        <v>4780</v>
-      </c>
-      <c r="N32" s="7">
-        <v>4414959</v>
-      </c>
-      <c r="O32" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A33" s="1"/>
-      <c r="B33" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C33" s="7">
-        <v>3375</v>
-      </c>
-      <c r="D33" s="7">
-        <v>3384151</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="H33" s="7">
-        <v>5360</v>
-      </c>
-      <c r="I33" s="7">
-        <v>3803647</v>
-      </c>
-      <c r="J33" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="K33" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="L33" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="M33" s="7">
-        <v>8735</v>
-      </c>
-      <c r="N33" s="7">
-        <v>7187798</v>
-      </c>
-      <c r="O33" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="P33" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q33" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>228</v>
+      <c r="A29" t="s">
+        <v>193</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A14:A18"/>
     <mergeCell ref="A19:A23"/>
     <mergeCell ref="A24:A28"/>
-    <mergeCell ref="A29:A33"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>

--- a/data/trans_orig/P33B1_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P33B1_2023-Habitat-trans_orig.xlsx
@@ -543,7 +543,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que tiene dificultad para dormirse por la noche en 2023</t>
+          <t>Población según la frecuencia con la que tiene dificultad para dormirse por la noche en 2023</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
